--- a/03_Outputs/all/idx4_Capacidad_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx4_Capacidad_loadings_y_tops.xlsx
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.2449813725424977</v>
+        <v>0.244981372542498</v>
       </c>
       <c r="D2">
-        <v>0.1516071474535251</v>
+        <v>0.1516071474535252</v>
       </c>
       <c r="E2">
         <v>15.2</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.6736089653647668</v>
+        <v>0.6736089653647673</v>
       </c>
       <c r="D3">
-        <v>0.4168640769630633</v>
+        <v>0.4168640769630635</v>
       </c>
       <c r="E3">
         <v>41.7</v>
@@ -441,10 +441,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.697305592181364</v>
+        <v>0.6973055921813635</v>
       </c>
       <c r="D4">
-        <v>0.4315287755834117</v>
+        <v>0.4315287755834112</v>
       </c>
       <c r="E4">
         <v>43.2</v>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.9590581089144217</v>
+        <v>0.9590581089144214</v>
       </c>
       <c r="D5">
-        <v>0.7347393644371457</v>
+        <v>0.7347393644371455</v>
       </c>
       <c r="E5">
         <v>73.5</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.2737819226153603</v>
+        <v>-0.2737819226153607</v>
       </c>
       <c r="D6">
-        <v>0.2097457431901442</v>
+        <v>0.2097457431901445</v>
       </c>
       <c r="E6">
         <v>21</v>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.07246380182222228</v>
+        <v>-0.0724638018222223</v>
       </c>
       <c r="D7">
-        <v>0.05551489237270998</v>
+        <v>0.05551489237270999</v>
       </c>
       <c r="E7">
         <v>5.6</v>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.1420973991059914</v>
+        <v>0.1420973991059915</v>
       </c>
       <c r="D8">
-        <v>0.09216882226132422</v>
+        <v>0.09216882226132428</v>
       </c>
       <c r="E8">
         <v>9.199999999999999</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.6865088642029653</v>
+        <v>0.6865088642029648</v>
       </c>
       <c r="D9">
-        <v>0.4452911445504336</v>
+        <v>0.4452911445504331</v>
       </c>
       <c r="E9">
         <v>44.5</v>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.7131016116501679</v>
+        <v>-0.7131016116501686</v>
       </c>
       <c r="D10">
-        <v>0.4625400331882423</v>
+        <v>0.4625400331882426</v>
       </c>
       <c r="E10">
         <v>46.3</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3274650893458443</v>
+        <v>0.3274650893458441</v>
       </c>
     </row>
     <row r="4">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2066420625729792</v>
+        <v>0.2066420625729794</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.697305592181364</v>
+        <v>0.6973055921813635</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6736089653647668</v>
+        <v>0.6736089653647673</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2449813725424977</v>
+        <v>0.244981372542498</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.9590581089144217</v>
+        <v>0.9590581089144214</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.2737819226153603</v>
+        <v>-0.2737819226153607</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.07246380182222228</v>
+        <v>-0.0724638018222223</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
